--- a/paper/Submissions/PlantCell/TPC accepted sub/Supplemental Figures and Tables/SDS 3. Results of single-isolate ANOVA on mixed effect model.xlsx
+++ b/paper/Submissions/PlantCell/TPC accepted sub/Supplemental Figures and Tables/SDS 3. Results of single-isolate ANOVA on mixed effect model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\Final\Supplemental Figures and Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC accepted sub\Supplemental Figures and Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF58494F-2D10-445B-A89A-63D85908A396}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BD0348-8D07-41BC-AF2F-43BDB48F6DFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDS 3" sheetId="1" r:id="rId1"/>
@@ -1186,17 +1186,18 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>137</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>1.0752157820638399E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>183</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>2.8808793252223401E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>62</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>7.7612369503532994E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>146</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>7.7612369503532994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>166</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>7.7612369503532994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>172</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>7.7612369503532994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>75</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>8.5059765296393405E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>8.6177954636958695E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>99</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>0.17044784120986201</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>0.190347685189169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>0.28263736169763798</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>0.31441661893992201</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>66</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>0.31441661893992201</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>68</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>0.31441661893992201</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>0.31441661893992201</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>47</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>0.338783229003907</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>0.39963404703584599</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>0.39963404703584599</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>61</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>0.39963404703584599</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>107</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>0.39963404703584599</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>139</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>0.39963404703584599</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>163</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>0.39963404703584599</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>189</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>0.39963404703584599</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>0.413219123562307</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>110</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>0.413219123562307</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>128</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>0.413219123562307</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>101</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>0.48317997533731599</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>155</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>0.48317997533731599</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>78</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>0.48464006705225599</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>86</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>116</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>150</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>156</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>170</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>182</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>0.52147935398811995</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>0.538741828811933</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>103</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>0.557026226398462</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>28</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>0.55944655249619102</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>23</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>0.56564836729937495</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>0.56564836729937495</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>83</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>0.56564836729937495</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>89</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>0.56564836729937495</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>149</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>0.56564836729937495</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>36</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>0.57381021418940203</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>54</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>0.57381021418940203</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>147</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>0.58650225882679496</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>37</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>0.59886744873028197</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>111</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>0.59886744873028197</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>119</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>0.59886744873028197</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>123</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>0.59886744873028197</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>159</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>0.59886744873028197</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>164</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>0.603021597032671</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>180</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>0.603021597032671</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>0.61109407691251405</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>0.62215414408926695</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>154</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>0.63471869139247605</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>19</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>0.63962809220484196</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>117</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>0.64377279984476798</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>87</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>0.67430221107438404</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>153</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>0.67430221107438404</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>59</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>0.67579530988070202</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>151</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>0.67579530988070202</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>169</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>0.67579530988070202</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>187</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>0.67579530988070202</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>7</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>55</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>57</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>85</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>95</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>97</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>113</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>141</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>171</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>177</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>0.68634197472596004</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>13</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>0.69944142354896499</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>33</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>0.69944142354896499</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>65</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>0.69944142354896499</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>91</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>0.69944142354896499</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>167</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>0.69944142354896499</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>181</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>0.69944142354896499</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>0.70626404284837996</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>0.70626404284837996</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>102</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>0.70626404284837996</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>158</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>0.70626404284837996</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>71</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>0.71256575069098804</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>93</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>0.71256575069098804</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>115</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>0.71256575069098804</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>173</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>0.71625920570917301</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>39</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>0.721716769644558</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>5</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>0.72478261958744405</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>67</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>0.72478261958744405</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>185</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>0.72980834185528198</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>157</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>0.73555685390361503</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>125</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>0.73840520214193806</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>129</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>0.73840520214193806</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>0.74628848564842898</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>0.74628848564842898</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>49</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>0.76929029909089097</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>79</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>0.76929029909089097</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>38</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>0.77216468779046799</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>0.77216468779046799</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>152</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>0.77216468779046799</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>32</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>70</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>82</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>84</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>100</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>106</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>118</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>126</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>138</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>142</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>160</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>162</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>178</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>0.77970164320783297</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>22</v>
       </c>
@@ -3979,7 +3980,7 @@
         <v>0.78165096782889598</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>80</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>0.78165096782889598</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>124</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>0.78165096782889598</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>148</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>0.78165096782889598</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>176</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>0.78165096782889598</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>184</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>0.78165096782889598</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>88</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>0.78467753770689197</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>6</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>0.79483773230852695</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>94</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>0.79483773230852695</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>174</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>0.79537590405853098</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>190</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>0.79537590405853098</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>26</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>0.80001810138552099</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>64</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>0.80001810138552099</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>90</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>0.80001810138552099</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>136</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>0.80001810138552099</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>16</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>0.80883903348511299</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>34</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>0.84626415135319</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>96</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>0.84626415135319</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>18</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>0.85914512446188296</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>108</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>0.85914512446188296</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>132</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>0.85914512446188296</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>76</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>0.85986742411396799</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>29</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>0.87727321569147398</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>0.87727321569147398</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>135</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>0.87727321569147398</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>17</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>0.92373211488650997</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>31</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>0.92373211488650997</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>0.92373211488650997</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>24</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>0.94254399500739605</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>114</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>0.94254399500739605</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>122</v>
       </c>
@@ -4669,7 +4670,7 @@
         <v>0.94254399500739605</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>130</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>0.94254399500739605</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>134</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>0.94254399500739605</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>188</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>0.94254399500739605</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>133</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>0.94301095642595301</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>15</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>0.94461650903689198</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>3</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>0.94659483231423203</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>9</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>0.94659483231423203</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>145</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>0.94659483231423203</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>11</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>0.94760210537921297</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>25</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>0.94760210537921297</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>63</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>0.94760210537921297</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>131</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>0.94760210537921297</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>143</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>0.94760210537921297</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>21</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>0.95739071079230198</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>69</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>0.95739071079230198</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>10</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>0.95783060997429603</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>60</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>0.95783060997429603</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>48</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>0.95882623760770702</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>50</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>0.95882623760770702</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>52</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>0.95882623760770702</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>74</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>0.95882623760770702</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>92</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>0.95882623760770702</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>144</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>0.95882623760770702</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>168</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>0.95882623760770702</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>72</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>0.96350415639133902</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>120</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>0.96350415639133902</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>109</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>0.96802748273320705</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>127</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>0.96981214444983299</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>186</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>0.97193549743318697</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>73</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>0.98547265456994304</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>81</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>0.98547265456994304</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>121</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>0.98547265456994304</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>165</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>0.98547265456994304</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>179</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>0.98547265456994304</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>35</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>0.99239104028124503</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>51</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>0.99239104028124503</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>53</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>0.99239104028124503</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>77</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>0.99239104028124503</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>161</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>0.99239104028124503</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>175</v>
       </c>
@@ -5590,7 +5591,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G191">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G191">
     <sortCondition ref="G2:G191"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
